--- a/nodes_source_analyses/households/households_lighting_incandescent_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_lighting_incandescent_electricity.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/households/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -260,9 +268,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>MW</t>
@@ -324,15 +329,19 @@
   <si>
     <t>http://refman.et-model.com/publications/1907</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -450,11 +459,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1019,7 +1023,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1091,7 +1095,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1117,7 +1121,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1138,7 +1142,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1149,7 +1153,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1158,7 +1161,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1179,31 +1182,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1459,80 +1462,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>990600</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1763,7 +1701,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2200,34 +2138,34 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="27" customWidth="1"/>
     <col min="2" max="2" width="10" style="18" customWidth="1"/>
-    <col min="3" max="3" width="42.875" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="18"/>
+    <col min="3" max="3" width="42.85546875" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="25" customFormat="1">
+    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23"/>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -2236,7 +2174,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>56</v>
@@ -2245,7 +2183,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -2254,29 +2192,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="80" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="81"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="82"/>
       <c r="C10" s="83"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="82" t="s">
         <v>59</v>
@@ -2285,33 +2223,33 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="82"/>
       <c r="C12" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="82"/>
       <c r="C13" s="85" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="82"/>
       <c r="C14" s="83" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="82"/>
       <c r="C15" s="83"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="82" t="s">
         <v>64</v>
@@ -2320,49 +2258,49 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="82"/>
       <c r="C17" s="87" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="82"/>
       <c r="C18" s="88" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="82"/>
       <c r="C19" s="89" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="90"/>
       <c r="C20" s="91" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="90"/>
       <c r="C21" s="92" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="90"/>
       <c r="C22" s="93" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="90"/>
       <c r="C23" s="94" t="s">
         <v>72</v>
@@ -2371,84 +2309,79 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.25" style="34" customWidth="1"/>
-    <col min="3" max="3" width="26.875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="34" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.125" style="34" customWidth="1"/>
-    <col min="7" max="7" width="22.375" style="34" customWidth="1"/>
-    <col min="8" max="8" width="3.5" style="34" customWidth="1"/>
-    <col min="9" max="9" width="41.5" style="34" customWidth="1"/>
-    <col min="10" max="10" width="3.5" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="34"/>
+    <col min="1" max="1" width="3.42578125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="34" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" style="34" customWidth="1"/>
+    <col min="9" max="9" width="41.42578125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11">
-      <c r="B2" s="117" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="120"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="120"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="123"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-    </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+    <row r="2" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="116" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="119"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="121"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="119"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="121"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="122"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="124"/>
+    </row>
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="32"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="35"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -2459,7 +2392,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="36"/>
     </row>
-    <row r="8" spans="2:11" s="22" customFormat="1">
+    <row r="8" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="20"/>
       <c r="C8" s="14" t="s">
         <v>21</v>
@@ -2480,7 +2413,7 @@
       </c>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:11" s="22" customFormat="1">
+    <row r="9" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="21"/>
       <c r="C9" s="11"/>
       <c r="D9" s="29"/>
@@ -2491,10 +2424,10 @@
       <c r="I9" s="11"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="2:11" s="22" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
       <c r="C10" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="11"/>
@@ -2504,13 +2437,13 @@
       <c r="I10" s="11"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="2:11" ht="16" thickBot="1">
+    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="37"/>
       <c r="C11" s="58" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="43">
         <f>'Research data'!G7</f>
@@ -2527,7 +2460,7 @@
       <c r="J11" s="38"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="37"/>
       <c r="C12" s="58"/>
       <c r="D12" s="19"/>
@@ -2535,25 +2468,25 @@
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
-      <c r="I12" s="97"/>
+      <c r="I12" s="96"/>
       <c r="J12" s="38"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37"/>
       <c r="C13" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="96"/>
+        <v>74</v>
+      </c>
+      <c r="D13" s="95"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
-      <c r="I13" s="97"/>
+      <c r="I13" s="96"/>
       <c r="J13" s="38"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
       <c r="C14" s="58" t="s">
         <v>48</v>
@@ -2576,7 +2509,7 @@
       <c r="J14" s="38"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
       <c r="C15" s="58" t="s">
         <v>49</v>
@@ -2599,10 +2532,10 @@
       <c r="J15" s="38"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="37"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="96"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
@@ -2611,12 +2544,12 @@
       <c r="J16" s="38"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
       <c r="C17" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="96"/>
+      <c r="D17" s="95"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
@@ -2625,7 +2558,7 @@
       <c r="J17" s="38"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37"/>
       <c r="C18" s="58" t="s">
         <v>46</v>
@@ -2648,7 +2581,7 @@
       <c r="J18" s="38"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
       <c r="C19" s="57" t="s">
         <v>45</v>
@@ -2668,7 +2601,7 @@
       <c r="J19" s="38"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="2:11" ht="20" customHeight="1" thickBot="1">
+    <row r="20" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="39"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
@@ -2681,47 +2614,10 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E5"/>
+    <mergeCell ref="B2:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>990600</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2736,27 +2632,27 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="46" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="46" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="46" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="7.25" style="46" customWidth="1"/>
-    <col min="8" max="8" width="3.875" style="46" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="46" customWidth="1"/>
-    <col min="10" max="10" width="5.25" style="46" customWidth="1"/>
-    <col min="11" max="11" width="7.375" style="46" customWidth="1"/>
-    <col min="12" max="12" width="4.875" style="46" customWidth="1"/>
-    <col min="13" max="13" width="8.375" style="46" customWidth="1"/>
-    <col min="14" max="14" width="2.75" style="46" customWidth="1"/>
-    <col min="15" max="15" width="31.125" style="46" customWidth="1"/>
-    <col min="16" max="16384" width="10.625" style="46"/>
+    <col min="1" max="2" width="3.42578125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="46" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="46" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="46" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="46" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" style="46" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="46" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="46" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="46" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="46" customWidth="1"/>
+    <col min="15" max="15" width="31.140625" style="46" customWidth="1"/>
+    <col min="16" max="16384" width="10.7109375" style="46"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="16" thickBot="1"/>
-    <row r="3" spans="2:15">
+    <row r="2" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="47"/>
       <c r="C3" s="48"/>
       <c r="D3" s="48"/>
@@ -2772,10 +2668,10 @@
       <c r="N3" s="48"/>
       <c r="O3" s="48"/>
     </row>
-    <row r="4" spans="2:15" s="22" customFormat="1">
+    <row r="4" spans="2:15" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="21"/>
       <c r="C4" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -2802,7 +2698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="49"/>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
@@ -2818,25 +2714,25 @@
       <c r="N5" s="51"/>
       <c r="O5" s="51"/>
     </row>
-    <row r="6" spans="2:15" ht="16" thickBot="1">
+    <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="49"/>
       <c r="C6" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
       <c r="F6" s="31"/>
       <c r="O6" s="79"/>
     </row>
-    <row r="7" spans="2:15" ht="16" thickBot="1">
+    <row r="7" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="49"/>
       <c r="C7" s="54" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
-      <c r="F7" s="100" t="s">
-        <v>82</v>
+      <c r="F7" s="99" t="s">
+        <v>81</v>
       </c>
       <c r="G7" s="74">
         <f>ROUND(G8/1000000, 5)</f>
@@ -2856,15 +2752,15 @@
       </c>
       <c r="O7" s="79"/>
     </row>
-    <row r="8" spans="2:15" ht="16" thickBot="1">
+    <row r="8" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="49"/>
       <c r="C8" s="55" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="54"/>
       <c r="E8" s="54"/>
-      <c r="F8" s="100" t="s">
-        <v>81</v>
+      <c r="F8" s="99" t="s">
+        <v>80</v>
       </c>
       <c r="G8" s="73">
         <f>ROUND(60,0)</f>
@@ -2881,19 +2777,19 @@
       </c>
       <c r="O8" s="79"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="49"/>
       <c r="C9" s="55"/>
       <c r="D9" s="54"/>
       <c r="E9" s="54"/>
-      <c r="F9" s="100"/>
+      <c r="F9" s="99"/>
       <c r="G9" s="51"/>
       <c r="I9" s="51"/>
       <c r="K9" s="51"/>
       <c r="M9" s="51"/>
       <c r="O9" s="79"/>
     </row>
-    <row r="10" spans="2:15" ht="16" thickBot="1">
+    <row r="10" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="49"/>
       <c r="C10" s="31" t="s">
         <v>4</v>
@@ -2903,7 +2799,7 @@
       <c r="F10" s="31"/>
       <c r="O10" s="79"/>
     </row>
-    <row r="11" spans="2:15" ht="16" thickBot="1">
+    <row r="11" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="49"/>
       <c r="C11" s="52" t="s">
         <v>29</v>
@@ -2933,7 +2829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="49"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
@@ -2941,25 +2837,25 @@
       <c r="F12" s="31"/>
       <c r="O12" s="79"/>
     </row>
-    <row r="13" spans="2:15" ht="16" thickBot="1">
+    <row r="13" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="49"/>
       <c r="C13" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="31"/>
       <c r="O13" s="79"/>
     </row>
-    <row r="14" spans="2:15" ht="16" thickBot="1">
+    <row r="14" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="49"/>
       <c r="C14" s="52" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="99" t="s">
-        <v>79</v>
+      <c r="F14" s="98" t="s">
+        <v>78</v>
       </c>
       <c r="G14" s="76">
         <f>ROUND(AVERAGE(I14,K14,M14),2)</f>
@@ -2981,14 +2877,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="16" thickBot="1">
+    <row r="15" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="49"/>
       <c r="C15" s="56" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>
-      <c r="F15" s="100" t="s">
+      <c r="F15" s="99" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="77">
@@ -3008,11 +2904,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3027,33 +2918,33 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.125" style="59" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="59" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="59" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="59" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="65" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="104" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="65" customWidth="1"/>
-    <col min="9" max="9" width="37.25" style="65" customWidth="1"/>
-    <col min="10" max="10" width="53.25" style="59" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="59"/>
+    <col min="1" max="2" width="3.140625" style="59" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="59" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="59" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="59" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="65" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="103" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="65" customWidth="1"/>
+    <col min="9" max="9" width="37.28515625" style="65" customWidth="1"/>
+    <col min="10" max="10" width="53.28515625" style="59" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="60"/>
       <c r="C2" s="61"/>
       <c r="D2" s="61"/>
       <c r="E2" s="61"/>
       <c r="F2" s="66"/>
-      <c r="G2" s="105"/>
+      <c r="G2" s="104"/>
       <c r="H2" s="66"/>
       <c r="I2" s="66"/>
       <c r="J2" s="61"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="63"/>
       <c r="C3" s="11" t="s">
         <v>15</v>
@@ -3061,20 +2952,20 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="16"/>
-      <c r="G3" s="106"/>
+      <c r="G3" s="105"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="64"/>
     </row>
-    <row r="4" spans="2:10" s="64" customFormat="1">
+    <row r="4" spans="2:10" s="64" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="63"/>
       <c r="F4" s="67"/>
-      <c r="G4" s="107"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="67"/>
       <c r="I4" s="67"/>
     </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="101"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="100"/>
       <c r="C5" s="13" t="s">
         <v>18</v>
       </c>
@@ -3084,34 +2975,34 @@
       <c r="E5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="102" t="s">
+      <c r="F5" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="108" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="102" t="s">
+      <c r="G5" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="102" t="s">
-        <v>86</v>
+      <c r="I5" s="101" t="s">
+        <v>85</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="63"/>
       <c r="C6" s="11"/>
       <c r="D6" s="64"/>
       <c r="E6" s="11"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="106"/>
+      <c r="G6" s="105"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="2:10" ht="16">
+    <row r="7" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="63"/>
       <c r="C7" s="68"/>
       <c r="D7" s="59" t="s">
@@ -3123,18 +3014,18 @@
       <c r="F7" s="65">
         <v>2013</v>
       </c>
-      <c r="G7" s="109" t="s">
+      <c r="G7" s="108" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="59"/>
       <c r="I7" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="109" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="63"/>
       <c r="C8" s="70" t="s">
         <v>33</v>
@@ -3142,7 +3033,7 @@
       <c r="H8" s="59"/>
       <c r="I8" s="59"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="63"/>
       <c r="C9" s="71" t="s">
         <v>17</v>
@@ -3150,13 +3041,13 @@
       <c r="H9" s="59"/>
       <c r="I9" s="59"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="63"/>
       <c r="C10" s="68"/>
       <c r="H10" s="59"/>
       <c r="I10" s="59"/>
     </row>
-    <row r="11" spans="2:10" ht="16">
+    <row r="11" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="63"/>
       <c r="C11" s="70" t="s">
         <v>33</v>
@@ -3170,18 +3061,18 @@
       <c r="F11" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="111">
+      <c r="G11" s="110">
         <v>2013</v>
       </c>
       <c r="H11" s="59"/>
       <c r="I11" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="J11" s="110" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="109" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="63"/>
       <c r="C12" s="71" t="s">
         <v>17</v>
@@ -3189,19 +3080,19 @@
       <c r="H12" s="59"/>
       <c r="I12" s="59"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="63"/>
       <c r="C13" s="68"/>
       <c r="H13" s="59"/>
       <c r="I13" s="59"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="63"/>
       <c r="C14" s="68"/>
       <c r="H14" s="59"/>
       <c r="I14" s="59"/>
     </row>
-    <row r="15" spans="2:10" ht="16">
+    <row r="15" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="63"/>
       <c r="C15" s="70" t="s">
         <v>33</v>
@@ -3215,18 +3106,18 @@
       <c r="F15" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="111">
+      <c r="G15" s="110">
         <v>2012</v>
       </c>
       <c r="H15" s="59"/>
       <c r="I15" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="J15" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="109" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="63"/>
       <c r="C16" s="71" t="s">
         <v>17</v>
@@ -3234,19 +3125,19 @@
       <c r="H16" s="59"/>
       <c r="I16" s="59"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="63"/>
       <c r="C17" s="64"/>
       <c r="H17" s="59"/>
       <c r="I17" s="59"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="63"/>
       <c r="C18" s="68"/>
       <c r="H18" s="59"/>
       <c r="I18" s="59"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="63"/>
       <c r="C19" s="72" t="s">
         <v>34</v>
@@ -3258,7 +3149,7 @@
         <v>6</v>
       </c>
       <c r="F19" s="67"/>
-      <c r="G19" s="107"/>
+      <c r="G19" s="106"/>
       <c r="H19" s="64" t="s">
         <v>54</v>
       </c>
@@ -3273,11 +3164,6 @@
   <ignoredErrors>
     <ignoredError sqref="F11 F15 G7" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3292,29 +3178,29 @@
       <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="59" customWidth="1"/>
-    <col min="2" max="2" width="4.625" style="59" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="59"/>
-    <col min="4" max="6" width="12.125" style="59" customWidth="1"/>
-    <col min="7" max="16384" width="10.625" style="59"/>
+    <col min="1" max="1" width="3.5703125" style="59" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="59" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="59"/>
+    <col min="4" max="6" width="12.140625" style="59" customWidth="1"/>
+    <col min="7" max="16384" width="10.7109375" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
-      <c r="B2" s="112"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="114"/>
-    </row>
-    <row r="3" spans="2:11" s="22" customFormat="1">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="111"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="113"/>
+    </row>
+    <row r="3" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="62"/>
       <c r="C3" s="13" t="s">
         <v>0</v>
@@ -3330,7 +3216,7 @@
       <c r="J3" s="13"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="2:11" s="22" customFormat="1">
+    <row r="4" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="21"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -3342,983 +3228,978 @@
       <c r="J4" s="11"/>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="115"/>
-      <c r="C5" s="103" t="s">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="114"/>
+      <c r="C5" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="116"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="115"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103" t="s">
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="115"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="114"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="116"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="115"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="116"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="115"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="116"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="115"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="116"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="115"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="116"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="115"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="116"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="115"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="116"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="115"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="116"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="115"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="116"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="115"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="116"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="115"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103">
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="115"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="114"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="115"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="114"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="115"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="114"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="115"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="114"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="115"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="114"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="115"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="114"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="115"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="114"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="115"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="114"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="115"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="114"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="115"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="114"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102">
         <v>1.3149999999999999</v>
       </c>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="116"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="115"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="116"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="115"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="116"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="115"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="116"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="115"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="116"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="115"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="116"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="115"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="116"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="115"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103" t="s">
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="115"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="114"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="115"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="114"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="115"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="114"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="115"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="114"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="115"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="114"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="115"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="114"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="115"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="114"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="116"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="115"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="116"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="115"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="116"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="115"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="116"/>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="115"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="116"/>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="115"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="116"/>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="115"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103">
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="115"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="114"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="115"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="114"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="115"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="114"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="115"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="114"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="115"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="114"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="115"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="114"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102">
         <v>1.44</v>
       </c>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="116"/>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="115"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="116"/>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="115"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="116"/>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="115"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="116"/>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="115"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="116"/>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="115"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="116"/>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="115"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103" t="s">
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="115"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="114"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="115"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="114"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="115"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="114"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="115"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="114"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="115"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="114"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="115"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="114"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="116"/>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="115"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="116"/>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="115"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="103"/>
-      <c r="K37" s="116"/>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="115"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="103"/>
-      <c r="J38" s="103"/>
-      <c r="K38" s="116"/>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="115"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="103"/>
-      <c r="K39" s="116"/>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="115"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="116"/>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="B41" s="115"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="116"/>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="115"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="103"/>
-      <c r="K42" s="116"/>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="115"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="116"/>
-    </row>
-    <row r="44" spans="2:11">
-      <c r="B44" s="115"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="103"/>
-      <c r="K44" s="116"/>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="115"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103">
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="102"/>
+      <c r="K35" s="115"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="114"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="115"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="114"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="115"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="114"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="115"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="114"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="115"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="114"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="115"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41" s="114"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="115"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="114"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="102"/>
+      <c r="K42" s="115"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" s="114"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="115"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="114"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="102"/>
+      <c r="J44" s="102"/>
+      <c r="K44" s="115"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" s="114"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="102">
         <v>2.0099999999999998</v>
       </c>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="116"/>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46" s="115"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="103"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="103"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="103"/>
-      <c r="K46" s="116"/>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47" s="115"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="103"/>
-      <c r="F47" s="103"/>
-      <c r="G47" s="103"/>
-      <c r="H47" s="103"/>
-      <c r="I47" s="103"/>
-      <c r="J47" s="103"/>
-      <c r="K47" s="116"/>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="115"/>
-      <c r="C48" s="103"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="103"/>
-      <c r="G48" s="103"/>
-      <c r="H48" s="103"/>
-      <c r="I48" s="103"/>
-      <c r="J48" s="103"/>
-      <c r="K48" s="116"/>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49" s="115"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="103"/>
-      <c r="K49" s="116"/>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="115"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="103"/>
-      <c r="G50" s="103"/>
-      <c r="H50" s="103"/>
-      <c r="I50" s="103"/>
-      <c r="J50" s="103"/>
-      <c r="K50" s="116"/>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="115"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="103"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="103"/>
-      <c r="I51" s="103"/>
-      <c r="J51" s="103"/>
-      <c r="K51" s="116"/>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="115"/>
-      <c r="C52" s="103"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="103"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="103"/>
-      <c r="H52" s="103"/>
-      <c r="I52" s="103"/>
-      <c r="J52" s="103"/>
-      <c r="K52" s="116"/>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53" s="115"/>
-      <c r="C53" s="103"/>
-      <c r="D53" s="103"/>
-      <c r="E53" s="103"/>
-      <c r="F53" s="103"/>
-      <c r="G53" s="103"/>
-      <c r="H53" s="103"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="103"/>
-      <c r="K53" s="116"/>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="B54" s="115"/>
-      <c r="C54" s="103"/>
-      <c r="D54" s="103"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="103"/>
-      <c r="H54" s="103"/>
-      <c r="I54" s="103"/>
-      <c r="J54" s="103"/>
-      <c r="K54" s="116"/>
-    </row>
-    <row r="55" spans="2:11">
-      <c r="B55" s="115"/>
-      <c r="C55" s="103"/>
-      <c r="D55" s="103"/>
-      <c r="E55" s="103"/>
-      <c r="F55" s="103"/>
-      <c r="G55" s="103"/>
-      <c r="H55" s="103"/>
-      <c r="I55" s="103"/>
-      <c r="J55" s="103"/>
-      <c r="K55" s="116"/>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="B56" s="115"/>
-      <c r="C56" s="103" t="s">
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="102"/>
+      <c r="J45" s="102"/>
+      <c r="K45" s="115"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46" s="114"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="102"/>
+      <c r="H46" s="102"/>
+      <c r="I46" s="102"/>
+      <c r="J46" s="102"/>
+      <c r="K46" s="115"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47" s="114"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="102"/>
+      <c r="H47" s="102"/>
+      <c r="I47" s="102"/>
+      <c r="J47" s="102"/>
+      <c r="K47" s="115"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" s="114"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="102"/>
+      <c r="F48" s="102"/>
+      <c r="G48" s="102"/>
+      <c r="H48" s="102"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="102"/>
+      <c r="K48" s="115"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B49" s="114"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="102"/>
+      <c r="H49" s="102"/>
+      <c r="I49" s="102"/>
+      <c r="J49" s="102"/>
+      <c r="K49" s="115"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B50" s="114"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="102"/>
+      <c r="I50" s="102"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="115"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B51" s="114"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="102"/>
+      <c r="H51" s="102"/>
+      <c r="I51" s="102"/>
+      <c r="J51" s="102"/>
+      <c r="K51" s="115"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B52" s="114"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="102"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="102"/>
+      <c r="I52" s="102"/>
+      <c r="J52" s="102"/>
+      <c r="K52" s="115"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B53" s="114"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="102"/>
+      <c r="H53" s="102"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="102"/>
+      <c r="K53" s="115"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B54" s="114"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="102"/>
+      <c r="F54" s="102"/>
+      <c r="G54" s="102"/>
+      <c r="H54" s="102"/>
+      <c r="I54" s="102"/>
+      <c r="J54" s="102"/>
+      <c r="K54" s="115"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B55" s="114"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="102"/>
+      <c r="F55" s="102"/>
+      <c r="G55" s="102"/>
+      <c r="H55" s="102"/>
+      <c r="I55" s="102"/>
+      <c r="J55" s="102"/>
+      <c r="K55" s="115"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B56" s="114"/>
+      <c r="C56" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="E56" s="103"/>
-      <c r="F56" s="103"/>
-      <c r="G56" s="103"/>
-      <c r="H56" s="103"/>
-      <c r="I56" s="103"/>
-      <c r="J56" s="103"/>
-      <c r="K56" s="116"/>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="B57" s="115"/>
-      <c r="C57" s="103" t="s">
+      <c r="E56" s="102"/>
+      <c r="F56" s="102"/>
+      <c r="G56" s="102"/>
+      <c r="H56" s="102"/>
+      <c r="I56" s="102"/>
+      <c r="J56" s="102"/>
+      <c r="K56" s="115"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B57" s="114"/>
+      <c r="C57" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" s="102"/>
+      <c r="F57" s="102"/>
+      <c r="G57" s="102"/>
+      <c r="H57" s="102"/>
+      <c r="I57" s="102"/>
+      <c r="J57" s="102"/>
+      <c r="K57" s="115"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B58" s="114"/>
+      <c r="C58" s="102"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="102"/>
+      <c r="F58" s="102"/>
+      <c r="G58" s="102"/>
+      <c r="H58" s="102"/>
+      <c r="I58" s="102"/>
+      <c r="J58" s="102"/>
+      <c r="K58" s="115"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B59" s="114"/>
+      <c r="C59" s="102"/>
+      <c r="D59" s="102"/>
+      <c r="E59" s="102"/>
+      <c r="F59" s="102"/>
+      <c r="G59" s="102"/>
+      <c r="H59" s="102"/>
+      <c r="I59" s="102"/>
+      <c r="J59" s="102"/>
+      <c r="K59" s="115"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60" s="114"/>
+      <c r="C60" s="102"/>
+      <c r="D60" s="102"/>
+      <c r="E60" s="102"/>
+      <c r="F60" s="102"/>
+      <c r="G60" s="102"/>
+      <c r="H60" s="102"/>
+      <c r="I60" s="102"/>
+      <c r="J60" s="102"/>
+      <c r="K60" s="115"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B61" s="114"/>
+      <c r="C61" s="102"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="102"/>
+      <c r="H61" s="102"/>
+      <c r="I61" s="102"/>
+      <c r="J61" s="102"/>
+      <c r="K61" s="115"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B62" s="114"/>
+      <c r="C62" s="102"/>
+      <c r="D62" s="102"/>
+      <c r="E62" s="102"/>
+      <c r="F62" s="102"/>
+      <c r="G62" s="102"/>
+      <c r="H62" s="102"/>
+      <c r="I62" s="102"/>
+      <c r="J62" s="102"/>
+      <c r="K62" s="115"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B63" s="114"/>
+      <c r="C63" s="102"/>
+      <c r="D63" s="102"/>
+      <c r="E63" s="102"/>
+      <c r="F63" s="102"/>
+      <c r="G63" s="102"/>
+      <c r="H63" s="102"/>
+      <c r="I63" s="102"/>
+      <c r="J63" s="102"/>
+      <c r="K63" s="115"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B64" s="114"/>
+      <c r="C64" s="102"/>
+      <c r="D64" s="102"/>
+      <c r="E64" s="102"/>
+      <c r="F64" s="102"/>
+      <c r="G64" s="102"/>
+      <c r="H64" s="102"/>
+      <c r="I64" s="102"/>
+      <c r="J64" s="102"/>
+      <c r="K64" s="115"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B65" s="114"/>
+      <c r="C65" s="102"/>
+      <c r="D65" s="102"/>
+      <c r="E65" s="102"/>
+      <c r="F65" s="102"/>
+      <c r="G65" s="102"/>
+      <c r="H65" s="102"/>
+      <c r="I65" s="102"/>
+      <c r="J65" s="102"/>
+      <c r="K65" s="115"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B66" s="114"/>
+      <c r="C66" s="102"/>
+      <c r="D66" s="102">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="E57" s="103"/>
-      <c r="F57" s="103"/>
-      <c r="G57" s="103"/>
-      <c r="H57" s="103"/>
-      <c r="I57" s="103"/>
-      <c r="J57" s="103"/>
-      <c r="K57" s="116"/>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="B58" s="115"/>
-      <c r="C58" s="103"/>
-      <c r="D58" s="103"/>
-      <c r="E58" s="103"/>
-      <c r="F58" s="103"/>
-      <c r="G58" s="103"/>
-      <c r="H58" s="103"/>
-      <c r="I58" s="103"/>
-      <c r="J58" s="103"/>
-      <c r="K58" s="116"/>
-    </row>
-    <row r="59" spans="2:11">
-      <c r="B59" s="115"/>
-      <c r="C59" s="103"/>
-      <c r="D59" s="103"/>
-      <c r="E59" s="103"/>
-      <c r="F59" s="103"/>
-      <c r="G59" s="103"/>
-      <c r="H59" s="103"/>
-      <c r="I59" s="103"/>
-      <c r="J59" s="103"/>
-      <c r="K59" s="116"/>
-    </row>
-    <row r="60" spans="2:11">
-      <c r="B60" s="115"/>
-      <c r="C60" s="103"/>
-      <c r="D60" s="103"/>
-      <c r="E60" s="103"/>
-      <c r="F60" s="103"/>
-      <c r="G60" s="103"/>
-      <c r="H60" s="103"/>
-      <c r="I60" s="103"/>
-      <c r="J60" s="103"/>
-      <c r="K60" s="116"/>
-    </row>
-    <row r="61" spans="2:11">
-      <c r="B61" s="115"/>
-      <c r="C61" s="103"/>
-      <c r="D61" s="103"/>
-      <c r="E61" s="103"/>
-      <c r="F61" s="103"/>
-      <c r="G61" s="103"/>
-      <c r="H61" s="103"/>
-      <c r="I61" s="103"/>
-      <c r="J61" s="103"/>
-      <c r="K61" s="116"/>
-    </row>
-    <row r="62" spans="2:11">
-      <c r="B62" s="115"/>
-      <c r="C62" s="103"/>
-      <c r="D62" s="103"/>
-      <c r="E62" s="103"/>
-      <c r="F62" s="103"/>
-      <c r="G62" s="103"/>
-      <c r="H62" s="103"/>
-      <c r="I62" s="103"/>
-      <c r="J62" s="103"/>
-      <c r="K62" s="116"/>
-    </row>
-    <row r="63" spans="2:11">
-      <c r="B63" s="115"/>
-      <c r="C63" s="103"/>
-      <c r="D63" s="103"/>
-      <c r="E63" s="103"/>
-      <c r="F63" s="103"/>
-      <c r="G63" s="103"/>
-      <c r="H63" s="103"/>
-      <c r="I63" s="103"/>
-      <c r="J63" s="103"/>
-      <c r="K63" s="116"/>
-    </row>
-    <row r="64" spans="2:11">
-      <c r="B64" s="115"/>
-      <c r="C64" s="103"/>
-      <c r="D64" s="103"/>
-      <c r="E64" s="103"/>
-      <c r="F64" s="103"/>
-      <c r="G64" s="103"/>
-      <c r="H64" s="103"/>
-      <c r="I64" s="103"/>
-      <c r="J64" s="103"/>
-      <c r="K64" s="116"/>
-    </row>
-    <row r="65" spans="2:11">
-      <c r="B65" s="115"/>
-      <c r="C65" s="103"/>
-      <c r="D65" s="103"/>
-      <c r="E65" s="103"/>
-      <c r="F65" s="103"/>
-      <c r="G65" s="103"/>
-      <c r="H65" s="103"/>
-      <c r="I65" s="103"/>
-      <c r="J65" s="103"/>
-      <c r="K65" s="116"/>
-    </row>
-    <row r="66" spans="2:11">
-      <c r="B66" s="115"/>
-      <c r="C66" s="103"/>
-      <c r="D66" s="103">
+      <c r="F66" s="102"/>
+      <c r="G66" s="102"/>
+      <c r="H66" s="102"/>
+      <c r="I66" s="102"/>
+      <c r="J66" s="102"/>
+      <c r="K66" s="115"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B67" s="114"/>
+      <c r="C67" s="102"/>
+      <c r="D67" s="102"/>
+      <c r="E67" s="102"/>
+      <c r="F67" s="102"/>
+      <c r="G67" s="102"/>
+      <c r="H67" s="102"/>
+      <c r="I67" s="102"/>
+      <c r="J67" s="102"/>
+      <c r="K67" s="115"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B68" s="114"/>
+      <c r="C68" s="102"/>
+      <c r="D68" s="102"/>
+      <c r="E68" s="102"/>
+      <c r="F68" s="102"/>
+      <c r="G68" s="102"/>
+      <c r="H68" s="102"/>
+      <c r="I68" s="102"/>
+      <c r="J68" s="102"/>
+      <c r="K68" s="115"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B69" s="114"/>
+      <c r="C69" s="102"/>
+      <c r="D69" s="102"/>
+      <c r="E69" s="102"/>
+      <c r="F69" s="102"/>
+      <c r="G69" s="102"/>
+      <c r="H69" s="102"/>
+      <c r="I69" s="102"/>
+      <c r="J69" s="102"/>
+      <c r="K69" s="115"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B70" s="114"/>
+      <c r="C70" s="102" t="s">
+        <v>52</v>
+      </c>
+      <c r="E70" s="102"/>
+      <c r="F70" s="102"/>
+      <c r="G70" s="102"/>
+      <c r="H70" s="102"/>
+      <c r="I70" s="102"/>
+      <c r="J70" s="102"/>
+      <c r="K70" s="115"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B71" s="114"/>
+      <c r="C71" s="102"/>
+      <c r="D71" s="102"/>
+      <c r="E71" s="102"/>
+      <c r="F71" s="102"/>
+      <c r="G71" s="102"/>
+      <c r="H71" s="102"/>
+      <c r="I71" s="102"/>
+      <c r="J71" s="102"/>
+      <c r="K71" s="115"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B72" s="114"/>
+      <c r="C72" s="102"/>
+      <c r="D72" s="102">
         <v>1000</v>
       </c>
-      <c r="E66" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="F66" s="103"/>
-      <c r="G66" s="103"/>
-      <c r="H66" s="103"/>
-      <c r="I66" s="103"/>
-      <c r="J66" s="103"/>
-      <c r="K66" s="116"/>
-    </row>
-    <row r="67" spans="2:11">
-      <c r="B67" s="115"/>
-      <c r="C67" s="103"/>
-      <c r="D67" s="103"/>
-      <c r="E67" s="103"/>
-      <c r="F67" s="103"/>
-      <c r="G67" s="103"/>
-      <c r="H67" s="103"/>
-      <c r="I67" s="103"/>
-      <c r="J67" s="103"/>
-      <c r="K67" s="116"/>
-    </row>
-    <row r="68" spans="2:11">
-      <c r="B68" s="115"/>
-      <c r="C68" s="103"/>
-      <c r="D68" s="103"/>
-      <c r="E68" s="103"/>
-      <c r="F68" s="103"/>
-      <c r="G68" s="103"/>
-      <c r="H68" s="103"/>
-      <c r="I68" s="103"/>
-      <c r="J68" s="103"/>
-      <c r="K68" s="116"/>
-    </row>
-    <row r="69" spans="2:11">
-      <c r="B69" s="115"/>
-      <c r="C69" s="103"/>
-      <c r="D69" s="103"/>
-      <c r="E69" s="103"/>
-      <c r="F69" s="103"/>
-      <c r="G69" s="103"/>
-      <c r="H69" s="103"/>
-      <c r="I69" s="103"/>
-      <c r="J69" s="103"/>
-      <c r="K69" s="116"/>
-    </row>
-    <row r="70" spans="2:11">
-      <c r="B70" s="115"/>
-      <c r="C70" s="103" t="s">
-        <v>52</v>
-      </c>
-      <c r="E70" s="103"/>
-      <c r="F70" s="103"/>
-      <c r="G70" s="103"/>
-      <c r="H70" s="103"/>
-      <c r="I70" s="103"/>
-      <c r="J70" s="103"/>
-      <c r="K70" s="116"/>
-    </row>
-    <row r="71" spans="2:11">
-      <c r="B71" s="115"/>
-      <c r="C71" s="103"/>
-      <c r="D71" s="103"/>
-      <c r="E71" s="103"/>
-      <c r="F71" s="103"/>
-      <c r="G71" s="103"/>
-      <c r="H71" s="103"/>
-      <c r="I71" s="103"/>
-      <c r="J71" s="103"/>
-      <c r="K71" s="116"/>
-    </row>
-    <row r="72" spans="2:11">
-      <c r="B72" s="115"/>
-      <c r="C72" s="103"/>
-      <c r="D72" s="103">
+      <c r="E72" s="102" t="s">
+        <v>84</v>
+      </c>
+      <c r="F72" s="102"/>
+      <c r="G72" s="102"/>
+      <c r="H72" s="102"/>
+      <c r="I72" s="102"/>
+      <c r="J72" s="102"/>
+      <c r="K72" s="115"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B73" s="114"/>
+      <c r="C73" s="102"/>
+      <c r="D73" s="102"/>
+      <c r="E73" s="102"/>
+      <c r="F73" s="102"/>
+      <c r="G73" s="102"/>
+      <c r="H73" s="102"/>
+      <c r="I73" s="102"/>
+      <c r="J73" s="102"/>
+      <c r="K73" s="115"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B74" s="114"/>
+      <c r="C74" s="102" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="102"/>
+      <c r="E74" s="102"/>
+      <c r="F74" s="102"/>
+      <c r="G74" s="102"/>
+      <c r="H74" s="102"/>
+      <c r="I74" s="102"/>
+      <c r="J74" s="102"/>
+      <c r="K74" s="115"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B75" s="114"/>
+      <c r="C75" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="102"/>
+      <c r="E75" s="102"/>
+      <c r="F75" s="102"/>
+      <c r="G75" s="102"/>
+      <c r="H75" s="102"/>
+      <c r="I75" s="102"/>
+      <c r="J75" s="102"/>
+      <c r="K75" s="115"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B76" s="114"/>
+      <c r="C76" s="102"/>
+      <c r="D76" s="102"/>
+      <c r="E76" s="102"/>
+      <c r="F76" s="102"/>
+      <c r="G76" s="102"/>
+      <c r="H76" s="102"/>
+      <c r="I76" s="102"/>
+      <c r="J76" s="102"/>
+      <c r="K76" s="115"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B77" s="114"/>
+      <c r="C77" s="102"/>
+      <c r="D77" s="102"/>
+      <c r="E77" s="102"/>
+      <c r="F77" s="102"/>
+      <c r="G77" s="102"/>
+      <c r="H77" s="102"/>
+      <c r="I77" s="102"/>
+      <c r="J77" s="102"/>
+      <c r="K77" s="115"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B78" s="114"/>
+      <c r="C78" s="102"/>
+      <c r="D78" s="102">
         <v>1000</v>
       </c>
-      <c r="E72" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="F72" s="103"/>
-      <c r="G72" s="103"/>
-      <c r="H72" s="103"/>
-      <c r="I72" s="103"/>
-      <c r="J72" s="103"/>
-      <c r="K72" s="116"/>
-    </row>
-    <row r="73" spans="2:11">
-      <c r="B73" s="115"/>
-      <c r="C73" s="103"/>
-      <c r="D73" s="103"/>
-      <c r="E73" s="103"/>
-      <c r="F73" s="103"/>
-      <c r="G73" s="103"/>
-      <c r="H73" s="103"/>
-      <c r="I73" s="103"/>
-      <c r="J73" s="103"/>
-      <c r="K73" s="116"/>
-    </row>
-    <row r="74" spans="2:11">
-      <c r="B74" s="115"/>
-      <c r="C74" s="103" t="s">
-        <v>40</v>
-      </c>
-      <c r="D74" s="103"/>
-      <c r="E74" s="103"/>
-      <c r="F74" s="103"/>
-      <c r="G74" s="103"/>
-      <c r="H74" s="103"/>
-      <c r="I74" s="103"/>
-      <c r="J74" s="103"/>
-      <c r="K74" s="116"/>
-    </row>
-    <row r="75" spans="2:11">
-      <c r="B75" s="115"/>
-      <c r="C75" s="103" t="s">
+      <c r="E78" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="D75" s="103"/>
-      <c r="E75" s="103"/>
-      <c r="F75" s="103"/>
-      <c r="G75" s="103"/>
-      <c r="H75" s="103"/>
-      <c r="I75" s="103"/>
-      <c r="J75" s="103"/>
-      <c r="K75" s="116"/>
-    </row>
-    <row r="76" spans="2:11">
-      <c r="B76" s="115"/>
-      <c r="C76" s="103"/>
-      <c r="D76" s="103"/>
-      <c r="E76" s="103"/>
-      <c r="F76" s="103"/>
-      <c r="G76" s="103"/>
-      <c r="H76" s="103"/>
-      <c r="I76" s="103"/>
-      <c r="J76" s="103"/>
-      <c r="K76" s="116"/>
-    </row>
-    <row r="77" spans="2:11">
-      <c r="B77" s="115"/>
-      <c r="C77" s="103"/>
-      <c r="D77" s="103"/>
-      <c r="E77" s="103"/>
-      <c r="F77" s="103"/>
-      <c r="G77" s="103"/>
-      <c r="H77" s="103"/>
-      <c r="I77" s="103"/>
-      <c r="J77" s="103"/>
-      <c r="K77" s="116"/>
-    </row>
-    <row r="78" spans="2:11">
-      <c r="B78" s="115"/>
-      <c r="C78" s="103"/>
-      <c r="D78" s="103">
-        <v>1000</v>
-      </c>
-      <c r="E78" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="F78" s="103"/>
-      <c r="G78" s="103"/>
-      <c r="H78" s="103"/>
-      <c r="I78" s="103"/>
-      <c r="J78" s="103"/>
-      <c r="K78" s="116"/>
-    </row>
-    <row r="79" spans="2:11">
-      <c r="B79" s="115"/>
-      <c r="C79" s="103"/>
-      <c r="D79" s="103"/>
-      <c r="E79" s="103"/>
-      <c r="F79" s="103"/>
-      <c r="G79" s="103"/>
-      <c r="H79" s="103"/>
-      <c r="I79" s="103"/>
-      <c r="J79" s="103"/>
-      <c r="K79" s="116"/>
-    </row>
-    <row r="80" spans="2:11">
-      <c r="B80" s="115"/>
-      <c r="C80" s="103"/>
-      <c r="D80" s="103"/>
-      <c r="E80" s="103"/>
-      <c r="F80" s="103"/>
-      <c r="G80" s="103"/>
-      <c r="H80" s="103"/>
-      <c r="I80" s="103"/>
-      <c r="J80" s="103"/>
-      <c r="K80" s="116"/>
-    </row>
-    <row r="81" spans="2:11">
-      <c r="B81" s="115"/>
-      <c r="C81" s="103"/>
-      <c r="D81" s="103"/>
-      <c r="E81" s="103"/>
-      <c r="F81" s="103"/>
-      <c r="G81" s="103"/>
-      <c r="H81" s="103"/>
-      <c r="I81" s="103"/>
-      <c r="J81" s="103"/>
-      <c r="K81" s="116"/>
-    </row>
-    <row r="82" spans="2:11">
-      <c r="B82" s="115"/>
-      <c r="C82" s="103"/>
-      <c r="D82" s="103"/>
-      <c r="E82" s="103"/>
-      <c r="F82" s="103"/>
-      <c r="G82" s="103"/>
-      <c r="H82" s="103"/>
-      <c r="I82" s="103"/>
-      <c r="J82" s="103"/>
-      <c r="K82" s="116"/>
+      <c r="F78" s="102"/>
+      <c r="G78" s="102"/>
+      <c r="H78" s="102"/>
+      <c r="I78" s="102"/>
+      <c r="J78" s="102"/>
+      <c r="K78" s="115"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B79" s="114"/>
+      <c r="C79" s="102"/>
+      <c r="D79" s="102"/>
+      <c r="E79" s="102"/>
+      <c r="F79" s="102"/>
+      <c r="G79" s="102"/>
+      <c r="H79" s="102"/>
+      <c r="I79" s="102"/>
+      <c r="J79" s="102"/>
+      <c r="K79" s="115"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B80" s="114"/>
+      <c r="C80" s="102"/>
+      <c r="D80" s="102"/>
+      <c r="E80" s="102"/>
+      <c r="F80" s="102"/>
+      <c r="G80" s="102"/>
+      <c r="H80" s="102"/>
+      <c r="I80" s="102"/>
+      <c r="J80" s="102"/>
+      <c r="K80" s="115"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B81" s="114"/>
+      <c r="C81" s="102"/>
+      <c r="D81" s="102"/>
+      <c r="E81" s="102"/>
+      <c r="F81" s="102"/>
+      <c r="G81" s="102"/>
+      <c r="H81" s="102"/>
+      <c r="I81" s="102"/>
+      <c r="J81" s="102"/>
+      <c r="K81" s="115"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B82" s="114"/>
+      <c r="C82" s="102"/>
+      <c r="D82" s="102"/>
+      <c r="E82" s="102"/>
+      <c r="F82" s="102"/>
+      <c r="G82" s="102"/>
+      <c r="H82" s="102"/>
+      <c r="I82" s="102"/>
+      <c r="J82" s="102"/>
+      <c r="K82" s="115"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>